--- a/VT_REG2_PRI_V12.xlsx
+++ b/VT_REG2_PRI_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEBE5923-BD81-4F1F-BE4B-8649F4532E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD868162-5BEE-474A-A693-EEDEF162A46A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="901"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -32,12 +32,15 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,14 +48,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -398,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -579,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -827,14 +830,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -948,7 +951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -974,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1361,7 +1364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1609,14 +1612,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1730,7 +1733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1756,7 +1759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1882,7 +1885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1915,7 +1918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1962,7 +1965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2055,7 +2058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2080,7 +2083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2143,7 +2146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2391,14 +2394,14 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2512,7 +2515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2538,7 +2541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2611,7 +2614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2664,7 +2667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2697,7 +2700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="2" shapeId="0">
+    <comment ref="F11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2744,7 +2747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="2" shapeId="0">
+    <comment ref="N11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2837,7 +2840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="1" shapeId="0">
+    <comment ref="O11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2862,7 +2865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="2" shapeId="0">
+    <comment ref="P11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2925,7 +2928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="2" shapeId="0">
+    <comment ref="H12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3173,14 +3176,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3294,7 +3297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3320,7 +3323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3393,7 +3396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -3446,7 +3449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -3479,7 +3482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="2" shapeId="0">
+    <comment ref="F8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -3526,7 +3529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="2" shapeId="0">
+    <comment ref="N8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -3619,7 +3622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="1" shapeId="0">
+    <comment ref="O8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3644,7 +3647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="2" shapeId="0">
+    <comment ref="P8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3707,7 +3710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0">
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3955,14 +3958,14 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4076,7 +4079,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4102,7 +4105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4175,7 +4178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4228,7 +4231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4261,7 +4264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="2" shapeId="0">
+    <comment ref="F14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4308,7 +4311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="2" shapeId="0">
+    <comment ref="N14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4401,7 +4404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="1" shapeId="0">
+    <comment ref="O14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4426,7 +4429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="2" shapeId="0">
+    <comment ref="P14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -4489,7 +4492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="2" shapeId="0">
+    <comment ref="H15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -4737,14 +4740,14 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4858,7 +4861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4884,7 +4887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4957,7 +4960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5010,7 +5013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5043,7 +5046,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="2" shapeId="0">
+    <comment ref="F12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5090,7 +5093,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="2" shapeId="0">
+    <comment ref="N12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5183,7 +5186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="1" shapeId="0">
+    <comment ref="O12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -5208,7 +5211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="2" shapeId="0">
+    <comment ref="P12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
       <text>
         <r>
           <rPr>
@@ -5271,7 +5274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="2" shapeId="0">
+    <comment ref="H13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -5519,14 +5522,14 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -5640,7 +5643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -5666,7 +5669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -5739,7 +5742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5792,7 +5795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5825,7 +5828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="2" shapeId="0">
+    <comment ref="P9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5918,7 +5921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="1" shapeId="0">
+    <comment ref="Q9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5943,7 +5946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
       <text>
         <r>
           <rPr>
@@ -6006,7 +6009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="2" shapeId="0">
+    <comment ref="J10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
       <text>
         <r>
           <rPr>
@@ -6254,7 +6257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="161">
   <si>
     <t>CommName</t>
   </si>
@@ -6634,9 +6637,6 @@
     <t>Linked to the Energy Balance</t>
   </si>
   <si>
-    <t>Reference Energy System (from VEDA-FE Go-To RES feature)</t>
-  </si>
-  <si>
     <t>Primary Supply (Mining, Import/Export)</t>
   </si>
   <si>
@@ -6711,17 +6711,47 @@
   <si>
     <t>Total CO2</t>
   </si>
+  <si>
+    <t>Reference Energy System</t>
+  </si>
+  <si>
+    <t>Objective Function by Scenario</t>
+  </si>
+  <si>
+    <t>_SysCost Result table</t>
+  </si>
+  <si>
+    <t>Run names:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6751,32 +6781,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -7280,37 +7284,37 @@
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7327,19 +7331,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7348,21 +7352,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="6" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="6" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7375,12 +7379,12 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7392,43 +7396,43 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="24" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="22" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7443,7 +7447,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="11" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7456,18 +7460,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="11" applyFill="1"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -7478,75 +7482,76 @@
     <xf numFmtId="1" fontId="4" fillId="15" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7556,31 +7561,31 @@
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="6"/>
+    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Input" xfId="8" builtinId="20"/>
-    <cellStyle name="Migliaia_tab emissioni" xfId="9"/>
+    <cellStyle name="Migliaia_tab emissioni" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="13"/>
-    <cellStyle name="Normal 4 2" xfId="14"/>
-    <cellStyle name="Normal 8" xfId="15"/>
-    <cellStyle name="Normal 9 2" xfId="16"/>
-    <cellStyle name="Normale_B2020" xfId="17"/>
+    <cellStyle name="Normal 10" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 8" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 9 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normale_B2020" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Percent" xfId="18" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="19"/>
-    <cellStyle name="Percent 3" xfId="20"/>
-    <cellStyle name="Percent 3 2" xfId="21"/>
-    <cellStyle name="Percent 3 3" xfId="22"/>
-    <cellStyle name="Percent 4" xfId="23"/>
-    <cellStyle name="Percent 4 2" xfId="24"/>
-    <cellStyle name="Percent 4 3" xfId="25"/>
-    <cellStyle name="Percent 5" xfId="26"/>
-    <cellStyle name="Percent 6" xfId="27"/>
-    <cellStyle name="Percent 7" xfId="28"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="29"/>
+    <cellStyle name="Percent 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 3 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 4 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 7" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -7963,13 +7968,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8037,13 +8042,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8111,13 +8116,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8185,13 +8190,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8259,13 +8264,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8333,13 +8338,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8407,13 +8412,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8481,13 +8486,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8555,13 +8560,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8629,13 +8634,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8703,13 +8708,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8777,13 +8782,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8851,13 +8856,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8925,13 +8930,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8999,13 +9004,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9073,13 +9078,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9147,13 +9152,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9213,6 +9218,50 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>990119</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD01303-03C2-4D48-BC31-9EAEC602D033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="209550"/>
+          <a:ext cx="3847619" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -10350,7 +10399,13 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="D5">
+            <v>5263.9327000000003</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2">
         <row r="5">
           <cell r="D5">
@@ -11098,10 +11153,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -11168,16 +11223,16 @@
         <v>47</v>
       </c>
       <c r="O2" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="Q2" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="R2" s="54" t="s">
         <v>135</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>136</v>
       </c>
       <c r="S2" s="54" t="s">
         <v>48</v>
@@ -11202,7 +11257,7 @@
     </row>
     <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C3" s="101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>51</v>
@@ -11238,16 +11293,16 @@
         <v>53</v>
       </c>
       <c r="O3" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="Q3" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="R3" s="55" t="s">
         <v>139</v>
-      </c>
-      <c r="R3" s="55" t="s">
-        <v>140</v>
       </c>
       <c r="S3" s="55" t="s">
         <v>54</v>
@@ -11542,10 +11597,10 @@
     </row>
     <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>131</v>
       </c>
       <c r="D8" s="61">
         <f>SUM(D5:D7)</f>
@@ -12183,7 +12238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12751,7 +12806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B3:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12768,7 +12823,7 @@
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -12782,27 +12837,27 @@
         <v>0</v>
       </c>
       <c r="C4" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="E4" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="F4" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="G4" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="H4" s="112" t="s">
         <v>147</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="111">
         <v>1</v>
@@ -12907,7 +12962,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="119"/>
       <c r="D11" s="118" t="str">
@@ -12915,7 +12970,7 @@
         <v>TOTCO2</v>
       </c>
       <c r="E11" s="118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="118" t="str">
         <f>'EB2'!AA2</f>
@@ -12933,11 +12988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12951,64 +13006,109 @@
     <col min="17" max="17" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="B22" s="82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="D24" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="102"/>
+    </row>
+    <row r="25" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="103" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="D5" s="131" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="102"/>
-    </row>
-    <row r="6" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="103" t="s">
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="M25" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="M6" s="103" t="s">
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="81"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M26" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="81"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M7" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-    </row>
-    <row r="44" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+    </row>
+    <row r="63" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M63" s="81"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="D24:P24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13017,7 +13117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13743,7 +13843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:R34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14471,7 +14571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15138,7 +15238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15877,7 +15977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16482,7 +16582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:V36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -17580,7 +17680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:V22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
